--- a/rto_wise_data/2022/Andhra Pradesh(83)/Proddutur RTA - AP204( 06-MAY-2022 ).xlsx
+++ b/rto_wise_data/2022/Andhra Pradesh(83)/Proddutur RTA - AP204( 06-MAY-2022 ).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="187">
   <si>
     <t>Maker Month Wise Data  of Proddutur RTA - AP204 , Andhra Pradesh (2022)</t>
   </si>
@@ -95,76 +95,484 @@
     <t>2</t>
   </si>
   <si>
+    <t>ASHOK LEYLAND LTD</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>ATHER ENERGY LTD</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>BAJAJ AUTO LTD</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1,644</t>
   </si>
   <si>
     <t>BENLING INDIA ENERGY AND TECHNOLOGY PVT LTD</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>BMW INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CLASSIC LEGENDS PVT LTD</t>
+  </si>
+  <si>
+    <t>CNH INDUSTRIAL (INDIA) PVT LTD</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DAIMLER INDIA COMMERCIAL VEHICLES PVT. LTD</t>
+  </si>
+  <si>
+    <t>EICHER TRACTORS</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>ESCORTS CONSTRUCTION EQUIPMENT LTD</t>
+  </si>
+  <si>
+    <t>ESCORTS KUBOTA LIMITED (AGRI MACHINERY GROUP)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ESCORTS TRACTORS LTD</t>
+  </si>
+  <si>
+    <t>FORCE MOTORS LIMITED</t>
+  </si>
+  <si>
     <t>HERO ELECTRIC VEHICLES PVT. LTD</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
+    <t>HERO MOTOCORP LTD</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1,624</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>HONDA CARS INDIA LTD</t>
+  </si>
+  <si>
+    <t>HONDA MOTORCYCLE AND SCOOTER INDIA (P) LTD</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>1,110</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>HYUNDAI MOTOR INDIA LTD</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>INDIA KAWASAKI MOTORS PVT LTD</t>
+  </si>
+  <si>
+    <t>INDIA YAMAHA MOTOR PVT LTD</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL TRACTORS LIMITED</t>
+  </si>
+  <si>
+    <t>JOHN DEERE INDIA  PVT LTD(TRACTOR DEVISION)</t>
+  </si>
+  <si>
+    <t>JP INDUSTRIES</t>
+  </si>
+  <si>
+    <t>JSW MG MOTOR INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>KIA INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>KUBOTA AGRICULTURAL MACHINERY INDIA PVT.LTD.</t>
+  </si>
+  <si>
+    <t>L &amp; T CASE EQUIPMENT PVT LTD</t>
+  </si>
+  <si>
+    <t>MAHINDRA &amp; MAHINDRA LIMITED</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>MAHINDRA &amp; MAHINDRA LIMITED (SWARAJ DIVISION)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>MAHINDRA &amp; MAHINDRA LIMITED (TRACTOR)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>MARUTI SUZUKI INDIA LTD</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>NEW MALLIKARJUNA ENG WORKS</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>NISSAN MOTOR INDIA PVT LTD</t>
+  </si>
+  <si>
     <t>OKINAWA AUTOTECH PVT LTD</t>
   </si>
   <si>
     <t>OLA ELECTRIC TECHNOLOGIES PVT LTD</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>OTHERS</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>744</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>3,867</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>PIAGGIO VEHICLES PVT LTD</t>
+  </si>
+  <si>
+    <t>166</t>
   </si>
   <si>
     <t>PUR ENERGY PVT LTD</t>
   </si>
   <si>
+    <t>RENAULT INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>ROYAL-ENFIELD (UNIT OF EICHER LTD)</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>SHIVA GAYATRI ENGG WORKS</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>SKODA AUTO VOLKSWAGEN INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>SUZUKI MOTORCYCLE INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>TAFE LIMITED</t>
+  </si>
+  <si>
+    <t>TATA MOTORS LTD</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>TATA MOTORS PASSENGER VEHICLES LTD</t>
+  </si>
+  <si>
+    <t>TOYOTA KIRLOSKAR MOTOR PVT LTD</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>TVS MOTOR COMPANY LTD</t>
   </si>
   <si>
-    <t>10</t>
+    <t>412</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>2,741</t>
+  </si>
+  <si>
+    <t>VE COMMERCIAL VEHICLES LTD</t>
   </si>
 </sst>
 </file>
@@ -239,27 +647,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.2109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="4.515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.01953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.54296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.15234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.6796875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.0" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="3.94921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.54296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.54296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.0625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.54296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="4.88671875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="5.11328125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="4.89453125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="4.54296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="6.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -386,51 +794,51 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -448,28 +856,28 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -477,46 +885,46 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -524,7 +932,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -545,10 +953,10 @@
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -560,18 +968,18 @@
         <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -583,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -592,83 +1000,83 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
         <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -695,66 +1103,1993 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
         <v>21</v>
       </c>
-      <c r="O13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18"/>
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>62</v>
+      </c>
+      <c r="N37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>135</v>
+      </c>
+      <c r="N41" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" t="s">
+        <v>114</v>
+      </c>
+      <c r="O45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48" t="s">
+        <v>102</v>
+      </c>
+      <c r="L48" t="s">
+        <v>148</v>
+      </c>
+      <c r="M48" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48" t="s">
+        <v>164</v>
+      </c>
+      <c r="O48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K53" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53" t="s">
+        <v>183</v>
+      </c>
+      <c r="M53" t="s">
+        <v>184</v>
+      </c>
+      <c r="N53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:O1"/>
